--- a/firefox.xlsx
+++ b/firefox.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{10941A7B-3140-4DC3-90A1-16BF394B56D4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{19BDE095-733E-462F-B40D-72BFE4F9F31C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P,usr</t>
   </si>
@@ -52,9 +52,6 @@
     <t>itlb stall /unhalted cycles</t>
   </si>
   <si>
-    <t>base w/o superpages</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>The varations of the following are regarding libxul.so (text segment 79.67MB)</t>
-  </si>
-  <si>
-    <t>base + shared page table</t>
   </si>
   <si>
     <t>Open two tab in firefox, where each tab runs Bbench for 100 times. One tab is running in foreground, the other one is in background so it is slower</t>
@@ -413,7 +407,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -424,12 +418,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -439,148 +433,112 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>8565631426.7150002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8776394355.2350006</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8675975610.7900009</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8635568753.9449997</v>
-      </c>
+      <c r="B4">
+        <v>17286867112.580002</v>
+      </c>
+      <c r="C4">
+        <v>16858850197.105</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>3273315.84</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3271637.74</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2976333.895</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3210849.5550000002</v>
-      </c>
+      <c r="B5">
+        <v>3253118.9849999999</v>
+      </c>
+      <c r="C5">
+        <v>2895193.395</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>279237038.33999997</v>
-      </c>
-      <c r="C6" s="1">
-        <v>295638839.90499997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>275992544.72500002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>287828584.91500002</v>
-      </c>
+      <c r="B6">
+        <v>293151475.47500002</v>
+      </c>
+      <c r="C6">
+        <v>264707310.625</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <v>571957.88500000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>584176.54</v>
-      </c>
-      <c r="D7" s="1">
-        <v>569704.245</v>
-      </c>
-      <c r="E7" s="1">
-        <v>570202.55500000005</v>
-      </c>
+      <c r="B7">
+        <v>612042.43999999994</v>
+      </c>
+      <c r="C7">
+        <v>577125.91</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
-        <v>9021162538.6599998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8538206825.9049997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8320978405.29</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8940002762.9300003</v>
-      </c>
+      <c r="B8">
+        <v>16842930796.195</v>
+      </c>
+      <c r="C8">
+        <v>16806254162.305</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
-        <v>2550696.06</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2006721.47</v>
-      </c>
-      <c r="D9" s="1">
-        <v>733646.46499999997</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2042231.7749999999</v>
-      </c>
+      <c r="B9">
+        <v>2028872.365</v>
+      </c>
+      <c r="C9">
+        <v>726291.90500000003</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>128946985.63500001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>99655784.310000002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>36492798.579999998</v>
-      </c>
-      <c r="E10" s="1">
-        <v>99306254.359999999</v>
-      </c>
+      <c r="B10">
+        <v>103004776.405</v>
+      </c>
+      <c r="C10">
+        <v>38078068.090000004</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>375116301.47000003</v>
-      </c>
-      <c r="C11" s="1">
-        <v>259510045.785</v>
-      </c>
-      <c r="D11" s="1">
-        <v>207027021.56</v>
-      </c>
-      <c r="E11" s="1">
-        <v>277249136.66000003</v>
-      </c>
+      <c r="B11">
+        <v>421020771.05000001</v>
+      </c>
+      <c r="C11">
+        <v>340327492.33499998</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -588,20 +546,14 @@
       </c>
       <c r="B12" s="2">
         <f>B11/B8</f>
-        <v>4.1581813858518467E-2</v>
+        <v>2.4996883033273114E-2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:E12" si="0">C11/C8</f>
-        <v>3.0393975114030275E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4880129652587984E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1012198095689881E-2</v>
-      </c>
+        <v>2.0250050311527813E-2</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/firefox.xlsx
+++ b/firefox.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{19BDE095-733E-462F-B40D-72BFE4F9F31C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F310CB1E-03AF-416A-84AF-FBAC57626DEF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P,usr</t>
   </si>
@@ -52,26 +52,35 @@
     <t>itlb stall /unhalted cycles</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>base + superpages</t>
-  </si>
-  <si>
     <t>The varations of the following are regarding libxul.so (text segment 79.67MB)</t>
   </si>
   <si>
     <t>Open two tab in firefox, where each tab runs Bbench for 100 times. One tab is running in foreground, the other one is in background so it is slower</t>
+  </si>
+  <si>
+    <t>Firefox processes only</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Base with superpage disabled</t>
+  </si>
+  <si>
+    <t>Firefox + all xserver + window display manager processes</t>
+  </si>
+  <si>
+    <t>Base + superpages on libxul.so</t>
+  </si>
+  <si>
+    <t>Base + sharing page table page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +103,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,21 +128,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -418,20 +439,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -441,119 +465,277 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>17286867112.580002</v>
+        <v>8979058962.1299896</v>
       </c>
       <c r="C4">
-        <v>16858850197.105</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>9149733692.3950005</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3253118.9849999999</v>
+        <v>3287719.7349999999</v>
       </c>
       <c r="C5">
-        <v>2895193.395</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>3274409.65</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>293151475.47500002</v>
+        <v>287512259.55500001</v>
       </c>
       <c r="C6">
-        <v>264707310.625</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>300378342.16000003</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>612042.43999999994</v>
+        <v>576740.55500000005</v>
       </c>
       <c r="C7">
-        <v>577125.91</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>590450.72499999998</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>16842930796.195</v>
+        <v>9322155311.1550007</v>
       </c>
       <c r="C8">
-        <v>16806254162.305</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>9112685814.9850006</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>2028872.365</v>
+        <v>2485796.0350000001</v>
       </c>
       <c r="C9">
-        <v>726291.90500000003</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>2047961.51</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>103004776.405</v>
+        <v>125091448.035</v>
       </c>
       <c r="C10">
-        <v>38078068.090000004</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>102279031.27</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>421020771.05000001</v>
+        <v>366505286.22000003</v>
       </c>
       <c r="C11">
-        <v>340327492.33499998</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>272912066.16500002</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f>B11/B8</f>
-        <v>2.4996883033273114E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:E12" si="0">C11/C8</f>
-        <v>2.0250050311527813E-2</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>3.9315509556189808E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12" si="0">C11/C8</f>
+        <v>2.9948587244851613E-2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>17568740849.110001</v>
+      </c>
+      <c r="C16">
+        <v>17286867112.580002</v>
+      </c>
+      <c r="D16">
+        <v>16858850197.105</v>
+      </c>
+      <c r="E16">
+        <v>8635568753.9449997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3478390.54</v>
+      </c>
+      <c r="C17">
+        <v>3253118.9849999999</v>
+      </c>
+      <c r="D17">
+        <v>2895193.395</v>
+      </c>
+      <c r="E17">
+        <v>3210849.5550000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>293463666.875</v>
+      </c>
+      <c r="C18">
+        <v>293151475.47500002</v>
+      </c>
+      <c r="D18">
+        <v>264707310.625</v>
+      </c>
+      <c r="E18">
+        <v>287828584.91500002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>615874.64500000002</v>
+      </c>
+      <c r="C19">
+        <v>612042.43999999994</v>
+      </c>
+      <c r="D19">
+        <v>577125.91</v>
+      </c>
+      <c r="E19">
+        <v>570202.55500000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>17530155462.009899</v>
+      </c>
+      <c r="C20">
+        <v>16842930796.195</v>
+      </c>
+      <c r="D20">
+        <v>16806254162.305</v>
+      </c>
+      <c r="E20">
+        <v>8940002762.9300003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2599096.9449999998</v>
+      </c>
+      <c r="C21">
+        <v>2028872.365</v>
+      </c>
+      <c r="D21">
+        <v>726291.90500000003</v>
+      </c>
+      <c r="E21">
+        <v>2042231.7749999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>129498646.34</v>
+      </c>
+      <c r="C22">
+        <v>103004776.405</v>
+      </c>
+      <c r="D22">
+        <v>38078068.090000004</v>
+      </c>
+      <c r="E22">
+        <v>99306254.359999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>527102882.51999998</v>
+      </c>
+      <c r="C23">
+        <v>421020771.05000001</v>
+      </c>
+      <c r="D23">
+        <v>340327492.33499998</v>
+      </c>
+      <c r="E23">
+        <v>277249136.66000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B23/B16</f>
+        <v>3.0002314169640793E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:E24" si="1">C23/C16</f>
+        <v>2.435494924025966E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0186874452057295E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2105486570684058E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
